--- a/Physical.xlsx
+++ b/Physical.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="0" windowWidth="20760" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="225">
   <si>
     <t>PHOI</t>
   </si>
@@ -688,6 +688,12 @@
   </si>
   <si>
     <t xml:space="preserve">In yellow: I modified the value manually with Joey's suggestions for the values of these parameters. </t>
+  </si>
+  <si>
+    <t>For Star 206247743</t>
+  </si>
+  <si>
+    <t>Original radius</t>
   </si>
 </sst>
 </file>
@@ -698,7 +704,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -730,8 +736,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,6 +754,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,12 +773,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -768,14 +801,30 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="17">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1105,15 +1154,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HK21"/>
+  <dimension ref="A1:HK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="7" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="21" width="0" hidden="1" customWidth="1"/>
     <col min="25" max="30" width="0" hidden="1" customWidth="1"/>
@@ -1790,13 +1840,13 @@
       <c r="C2">
         <v>21</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>0.7</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>0.3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>0.3</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -8371,7 +8421,7 @@
       </c>
     </row>
     <row r="12" spans="1:219">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>206247743</v>
       </c>
       <c r="B12" t="s">
@@ -8407,8 +8457,8 @@
       <c r="L12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="1">
-        <v>0.80028036199999997</v>
+      <c r="M12" s="11">
+        <v>3.2</v>
       </c>
       <c r="N12" s="1">
         <v>4.6549838000000003E-2</v>
@@ -9688,699 +9738,56 @@
         <v>1.0275534470000001</v>
       </c>
     </row>
-    <row r="14" spans="1:219">
-      <c r="A14">
-        <v>206432863</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>74</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.98776101800000005</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6.5904961999999997E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>5.6053736E-2</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.97801529899999995</v>
-      </c>
-      <c r="N14" s="1">
-        <v>9.1776747000000006E-2</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0.164481035</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V14" s="2">
-        <v>5788.5707469999998</v>
-      </c>
-      <c r="W14" s="2">
-        <v>125.5760014</v>
-      </c>
-      <c r="X14" s="2">
-        <v>85.981328230000003</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>4.4552510649999997</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>0.13223705299999999</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>6.5228693000000004E-2</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>-3.4177956000000002E-2</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>0.17742576600000001</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>0.13915174799999999</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>-1.4449365E-2</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>0.10800256</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>0.140390079</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>0.96727649619309852</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>0.2129696056242415</v>
-      </c>
-      <c r="AV14" s="4">
-        <v>0.36913657273616718</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI14" s="1">
-        <v>9.6163795600000004</v>
-      </c>
-      <c r="BJ14" s="1">
-        <v>0.37741423800000001</v>
-      </c>
-      <c r="BK14" s="1">
-        <v>0.27393437999999998</v>
-      </c>
-      <c r="BL14" s="1">
-        <v>4.1340865057755254</v>
-      </c>
-      <c r="BM14" s="1">
-        <v>2.400420945089198</v>
-      </c>
-      <c r="BN14" s="4">
-        <v>3.6339979743232247</v>
-      </c>
-      <c r="BO14" s="2">
-        <v>417.49936389999999</v>
-      </c>
-      <c r="BP14" s="2">
-        <v>41.517423309999998</v>
-      </c>
-      <c r="BQ14" s="2">
-        <v>71.016670829999995</v>
-      </c>
-      <c r="BR14" s="1">
-        <v>0.21538040899999999</v>
-      </c>
-      <c r="BS14" s="1">
-        <v>0.100391909</v>
-      </c>
-      <c r="BT14" s="1">
-        <v>6.0210988999999999E-2</v>
-      </c>
-      <c r="BU14" s="5">
-        <v>13.92302619</v>
-      </c>
-      <c r="BV14" s="5">
-        <v>3.3135551999999999E-2</v>
-      </c>
-      <c r="BW14" s="5">
-        <v>3.2488705E-2</v>
-      </c>
-      <c r="BX14" s="5">
-        <v>13.163251280000001</v>
-      </c>
-      <c r="BY14" s="5">
-        <v>2.1707654E-2</v>
-      </c>
-      <c r="BZ14" s="5">
-        <v>2.1827290999999999E-2</v>
-      </c>
-      <c r="CA14" s="5">
-        <v>13.511652639999999</v>
-      </c>
-      <c r="CB14" s="5">
-        <v>2.5824911999999998E-2</v>
-      </c>
-      <c r="CC14" s="5">
-        <v>2.5884291E-2</v>
-      </c>
-      <c r="CD14" s="5">
-        <v>12.94797047</v>
-      </c>
-      <c r="CE14" s="5">
-        <v>2.0565337E-2</v>
-      </c>
-      <c r="CF14" s="5">
-        <v>2.2187786000000001E-2</v>
-      </c>
-      <c r="CG14" s="5">
-        <v>12.792538110000001</v>
-      </c>
-      <c r="CH14" s="5">
-        <v>1.6331099000000002E-2</v>
-      </c>
-      <c r="CI14" s="5">
-        <v>1.7672884999999999E-2</v>
-      </c>
-      <c r="CJ14" s="5">
-        <v>12.74511931</v>
-      </c>
-      <c r="CK14" s="5">
-        <v>1.4050666E-2</v>
-      </c>
-      <c r="CL14" s="5">
-        <v>1.511323E-2</v>
-      </c>
-      <c r="CM14" s="5">
-        <v>11.857677880000001</v>
-      </c>
-      <c r="CN14" s="5">
-        <v>1.1631874E-2</v>
-      </c>
-      <c r="CO14" s="5">
-        <v>1.2436624E-2</v>
-      </c>
-      <c r="CP14" s="5">
-        <v>11.51416659</v>
-      </c>
-      <c r="CQ14" s="5">
-        <v>1.1622700999999999E-2</v>
-      </c>
-      <c r="CR14" s="5">
-        <v>1.2119681E-2</v>
-      </c>
-      <c r="CS14" s="5">
-        <v>11.46411135</v>
-      </c>
-      <c r="CT14" s="5">
-        <v>1.1021352999999999E-2</v>
-      </c>
-      <c r="CU14" s="5">
-        <v>1.1504230000000001E-2</v>
-      </c>
-      <c r="CV14" s="5">
-        <v>11.44061449</v>
-      </c>
-      <c r="CW14" s="5">
-        <v>1.1088298E-2</v>
-      </c>
-      <c r="CX14" s="5">
-        <v>1.1365469E-2</v>
-      </c>
-      <c r="CY14" s="5">
-        <v>11.46088007</v>
-      </c>
-      <c r="CZ14" s="5">
-        <v>1.2399622000000001E-2</v>
-      </c>
-      <c r="DA14" s="5">
-        <v>1.2561675E-2</v>
-      </c>
-      <c r="DB14" s="5">
-        <v>11.435038349999999</v>
-      </c>
-      <c r="DC14" s="5">
-        <v>1.2464672E-2</v>
-      </c>
-      <c r="DD14" s="5">
-        <v>1.2554001E-2</v>
-      </c>
-      <c r="DE14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DF14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DG14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DH14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DI14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DJ14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DK14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DL14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DM14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DN14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DO14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DP14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DQ14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DR14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DS14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DT14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DU14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DV14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DW14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DX14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DY14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="DZ14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EA14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EB14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EC14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="ED14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EE14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EF14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EG14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EH14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EI14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EJ14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EK14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EL14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EM14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EN14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EO14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EP14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EQ14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="ER14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="ES14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EU14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EV14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EW14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EX14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EY14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="EZ14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FA14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FB14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FC14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FD14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FE14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FF14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FG14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FH14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FI14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FJ14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FK14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FL14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FM14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FN14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FO14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FP14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FQ14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FR14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FS14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FT14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FU14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FV14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FW14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FX14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FY14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="FZ14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GA14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GB14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GC14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GD14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GE14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GF14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GG14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GH14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GI14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GJ14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GK14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GL14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GM14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GN14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GO14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GP14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GQ14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GR14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GS14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GT14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GU14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GV14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GW14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GX14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GY14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="GZ14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="HA14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="HB14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="HC14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="HD14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="HE14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="HF14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="HG14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="HH14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="HI14" s="5">
-        <v>9.2153369909999991</v>
-      </c>
-      <c r="HJ14" s="5">
-        <v>1.445149123</v>
-      </c>
-      <c r="HK14" s="5">
-        <v>0.92171672500000001</v>
+    <row r="16" spans="1:219">
+      <c r="D16" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="17" spans="4:7">
-      <c r="D17" s="7" t="s">
-        <v>221</v>
-      </c>
+    <row r="17" spans="4:22">
+      <c r="D17" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="4:7">
-      <c r="D18" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+    <row r="18" spans="4:22">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="4:7">
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+    <row r="19" spans="4:22">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="4:7">
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+    <row r="20" spans="4:22">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="4:7">
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+    <row r="21" spans="4:22">
+      <c r="V21" s="9"/>
+    </row>
+    <row r="23" spans="4:22">
+      <c r="D23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22">
+      <c r="E25" t="s">
+        <v>224</v>
+      </c>
+      <c r="M25">
+        <v>0.80028036199999997</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D18:G21"/>
+    <mergeCell ref="D17:G20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Physical.xlsx
+++ b/Physical.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="15380" yWindow="0" windowWidth="11440" windowHeight="15780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -803,10 +803,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1156,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1168,6 +1168,7 @@
     <col min="16" max="21" width="0" hidden="1" customWidth="1"/>
     <col min="25" max="30" width="0" hidden="1" customWidth="1"/>
     <col min="34" max="39" width="0" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="16.83203125" customWidth="1"/>
     <col min="43" max="219" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8457,7 +8458,7 @@
       <c r="L12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>3.2</v>
       </c>
       <c r="N12" s="1">
@@ -9744,30 +9745,30 @@
       </c>
     </row>
     <row r="17" spans="4:22">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="4:22">
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="4:22">
       <c r="V21" s="9"/>

--- a/Physical.xlsx
+++ b/Physical.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="0" windowWidth="11440" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="13880" yWindow="0" windowWidth="12940" windowHeight="15780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="228">
   <si>
     <t>PHOI</t>
   </si>
@@ -694,6 +694,15 @@
   </si>
   <si>
     <t>Original radius</t>
+  </si>
+  <si>
+    <t>original values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Star 205924614: </t>
+  </si>
+  <si>
+    <t>Suggested values: From Main Sequence Star to Subgiant. Instead of a K dwarf, it could be a K subgiant (Class IV)</t>
   </si>
 </sst>
 </file>
@@ -744,7 +753,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,6 +772,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -773,7 +788,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -791,8 +806,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -804,11 +841,15 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="39">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -817,6 +858,17 @@
     <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -825,6 +877,17 @@
     <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1154,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HK25"/>
+  <dimension ref="A1:HK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AN16" sqref="AN16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3186,8 +3249,8 @@
       <c r="L4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="1">
-        <v>0.66919749799999995</v>
+      <c r="M4" s="13">
+        <v>0.67</v>
       </c>
       <c r="N4" s="1">
         <v>2.9234330999999999E-2</v>
@@ -3240,8 +3303,8 @@
       <c r="AD4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AE4" s="1">
-        <v>4.6389184400000003</v>
+      <c r="AE4" s="15">
+        <v>4.6399999999999997</v>
       </c>
       <c r="AF4" s="1">
         <v>2.3996593E-2</v>
@@ -9745,30 +9808,30 @@
       </c>
     </row>
     <row r="17" spans="4:22">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="4:22">
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="4:22">
       <c r="V21" s="9"/>
@@ -9784,6 +9847,42 @@
       </c>
       <c r="M25">
         <v>0.80028036199999997</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22">
+      <c r="D29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22">
+      <c r="D31" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="M31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22">
+      <c r="D32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="12">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="M32" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13">
+      <c r="D33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.67</v>
+      </c>
+      <c r="M33" s="8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
